--- a/results/mp/logistic/toy-spam/confidence/210/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/210/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,102 +40,114 @@
     <t>name</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>poorly</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>poorly</t>
+    <t>however</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>however</t>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>paint</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
     <t>okay</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>fl</t>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>nothing</t>
   </si>
   <si>
     <t>worked</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
@@ -145,87 +157,72 @@
     <t>way</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>look</t>
+    <t>product</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>made</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
     <t>toy</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>buy</t>
+    <t>much</t>
   </si>
   <si>
     <t>son</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>excellent</t>
+    <t>elf</t>
   </si>
   <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>elf</t>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>loved</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -235,13 +232,10 @@
     <t>family</t>
   </si>
   <si>
+    <t>game</t>
+  </si>
+  <si>
     <t>friends</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>recommend</t>
   </si>
   <si>
     <t>fun</t>
@@ -608,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,10 +610,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -677,13 +671,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9527027027027027</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -695,19 +689,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K3">
-        <v>0.7076923076923077</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="L3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -719,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -727,13 +721,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9436619718309859</v>
+        <v>0.9797297297297297</v>
       </c>
       <c r="C4">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="D4">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -745,19 +739,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K4">
-        <v>0.5974025974025974</v>
+        <v>0.65625</v>
       </c>
       <c r="L4">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M4">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -769,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -777,38 +771,38 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9318181818181818</v>
+        <v>0.9154929577464789</v>
       </c>
       <c r="C5">
+        <v>65</v>
+      </c>
+      <c r="D5">
+        <v>65</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5">
+        <v>0.5324675324675324</v>
+      </c>
+      <c r="L5">
         <v>41</v>
       </c>
-      <c r="D5">
+      <c r="M5">
         <v>41</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5">
-        <v>0.53125</v>
-      </c>
-      <c r="L5">
-        <v>34</v>
-      </c>
-      <c r="M5">
-        <v>34</v>
-      </c>
       <c r="N5">
         <v>1</v>
       </c>
@@ -819,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -827,13 +821,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9223300970873787</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="C6">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -845,19 +839,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K6">
-        <v>0.5268817204301075</v>
+        <v>0.453125</v>
       </c>
       <c r="L6">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="M6">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -869,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -877,13 +871,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8947368421052632</v>
+        <v>0.9086021505376344</v>
       </c>
       <c r="C7">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -895,19 +889,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K7">
-        <v>0.5</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="L7">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -919,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -927,13 +921,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8857142857142857</v>
+        <v>0.9077669902912622</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -945,19 +939,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K8">
-        <v>0.4117647058823529</v>
+        <v>0.4356846473029046</v>
       </c>
       <c r="L8">
-        <v>287</v>
+        <v>210</v>
       </c>
       <c r="M8">
-        <v>287</v>
+        <v>210</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -969,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>410</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -977,13 +971,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8763440860215054</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C9">
-        <v>163</v>
+        <v>85</v>
       </c>
       <c r="D9">
-        <v>163</v>
+        <v>85</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -995,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K9">
-        <v>0.4045643153526971</v>
+        <v>0.4128440366972477</v>
       </c>
       <c r="L9">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="M9">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1019,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>287</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1027,13 +1021,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8421052631578947</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="C10">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D10">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1045,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K10">
-        <v>0.3792048929663608</v>
+        <v>0.3951149425287356</v>
       </c>
       <c r="L10">
-        <v>124</v>
+        <v>275</v>
       </c>
       <c r="M10">
-        <v>124</v>
+        <v>276</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1066,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>203</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1077,13 +1071,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8225806451612904</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C11">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D11">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1095,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K11">
-        <v>0.2933442892358258</v>
+        <v>0.2974527526705013</v>
       </c>
       <c r="L11">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="M11">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="N11">
         <v>0.99</v>
@@ -1119,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>860</v>
+        <v>855</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1127,7 +1121,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8043478260869565</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C12">
         <v>37</v>
@@ -1145,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K12">
-        <v>0.2710843373493976</v>
+        <v>0.2409638554216867</v>
       </c>
       <c r="L12">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M12">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1169,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1177,13 +1171,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7890625</v>
+        <v>0.78125</v>
       </c>
       <c r="C13">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="D13">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1195,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K13">
-        <v>0.2311977715877437</v>
+        <v>0.233983286908078</v>
       </c>
       <c r="L13">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1219,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1230,10 +1224,10 @@
         <v>0.765625</v>
       </c>
       <c r="C14">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="D14">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1245,31 +1239,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K14">
-        <v>0.1904761904761905</v>
+        <v>0.1754385964912281</v>
       </c>
       <c r="L14">
-        <v>36</v>
+        <v>270</v>
       </c>
       <c r="M14">
-        <v>36</v>
+        <v>272</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>153</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1277,13 +1271,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7592592592592593</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="C15">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D15">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1295,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K15">
-        <v>0.1675324675324675</v>
+        <v>0.1534391534391534</v>
       </c>
       <c r="L15">
-        <v>258</v>
+        <v>29</v>
       </c>
       <c r="M15">
-        <v>259</v>
+        <v>29</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1316,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1282</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1327,13 +1321,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7407407407407407</v>
+        <v>0.6721311475409836</v>
       </c>
       <c r="C16">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1345,31 +1339,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K16">
-        <v>0.1373239436619718</v>
+        <v>0.147239263803681</v>
       </c>
       <c r="L16">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="M16">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="N16">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>245</v>
+        <v>973</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1377,13 +1371,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6825396825396826</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C17">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1395,31 +1389,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K17">
-        <v>0.1367221735319895</v>
+        <v>0.06182795698924731</v>
       </c>
       <c r="L17">
-        <v>156</v>
+        <v>46</v>
       </c>
       <c r="M17">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>985</v>
+        <v>698</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1427,13 +1421,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6557377049180327</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C18">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D18">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1445,31 +1439,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>21</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K18">
-        <v>0.0535475234270415</v>
-      </c>
-      <c r="L18">
-        <v>40</v>
-      </c>
-      <c r="M18">
-        <v>45</v>
-      </c>
-      <c r="N18">
-        <v>0.89</v>
-      </c>
-      <c r="O18">
-        <v>0.11</v>
-      </c>
-      <c r="P18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>707</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1477,13 +1447,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6507936507936508</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="C19">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D19">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1495,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1503,13 +1473,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6363636363636364</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="C20">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D20">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1521,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1529,13 +1499,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5545023696682464</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C21">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="D21">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1547,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>94</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1555,13 +1525,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5357142857142857</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C22">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D22">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1573,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1581,13 +1551,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5344827586206896</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C23">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D23">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1599,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1607,13 +1577,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5185185185185185</v>
+        <v>0.5734597156398105</v>
       </c>
       <c r="C24">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="D24">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1625,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>52</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1633,13 +1603,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4898550724637681</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="C25">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="D25">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1651,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>176</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1659,25 +1629,25 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4742268041237113</v>
+        <v>0.5257731958762887</v>
       </c>
       <c r="C26">
+        <v>51</v>
+      </c>
+      <c r="D26">
+        <v>51</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>46</v>
-      </c>
-      <c r="D26">
-        <v>46</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1685,13 +1655,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4356435643564356</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C27">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="D27">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1703,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>114</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1711,13 +1681,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4145569620253164</v>
+        <v>0.4579710144927536</v>
       </c>
       <c r="C28">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="D28">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1729,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1737,13 +1707,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4096385542168675</v>
+        <v>0.4367088607594937</v>
       </c>
       <c r="C29">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="D29">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1755,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>49</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1763,13 +1733,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4033613445378151</v>
+        <v>0.4268292682926829</v>
       </c>
       <c r="C30">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D30">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1781,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1789,13 +1759,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3918918918918919</v>
+        <v>0.4175824175824176</v>
       </c>
       <c r="C31">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D31">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1807,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1815,13 +1785,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3902439024390244</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C32">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D32">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1833,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1841,13 +1811,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3736263736263736</v>
+        <v>0.4158415841584158</v>
       </c>
       <c r="C33">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="D33">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1859,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>57</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1867,13 +1837,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3258426966292135</v>
+        <v>0.3949579831932773</v>
       </c>
       <c r="C34">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D34">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1885,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1893,13 +1863,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2934782608695652</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="C35">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="D35">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1911,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>195</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1919,13 +1889,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2753164556962026</v>
+        <v>0.305</v>
       </c>
       <c r="C36">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D36">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1937,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>229</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1945,13 +1915,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2514619883040936</v>
+        <v>0.2905982905982906</v>
       </c>
       <c r="C37">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D37">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1963,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>128</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1971,13 +1941,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.25</v>
+        <v>0.28125</v>
       </c>
       <c r="C38">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D38">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1989,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>150</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1997,13 +1967,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2421875</v>
+        <v>0.2644927536231884</v>
       </c>
       <c r="C39">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="D39">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2015,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>97</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2023,13 +1993,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2349726775956284</v>
+        <v>0.2373417721518987</v>
       </c>
       <c r="C40">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="D40">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2041,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>140</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2049,25 +2019,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1899109792284867</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="C41">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="D41">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>546</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2075,13 +2045,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1806167400881057</v>
+        <v>0.2158590308370044</v>
       </c>
       <c r="C42">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D42">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2093,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>372</v>
+        <v>356</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2101,13 +2071,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1657142857142857</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C43">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D43">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2119,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2127,25 +2097,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1641025641025641</v>
+        <v>0.1839762611275964</v>
       </c>
       <c r="C44">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="D44">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="E44">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>163</v>
+        <v>550</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2153,13 +2123,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1514195583596215</v>
+        <v>0.171875</v>
       </c>
       <c r="C45">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D45">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2171,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>269</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2179,25 +2149,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1495327102803738</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="C46">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D46">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>182</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2205,25 +2175,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1329479768786127</v>
+        <v>0.1693989071038251</v>
       </c>
       <c r="C47">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D47">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E47">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>300</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2231,25 +2201,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1100917431192661</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="C48">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="D48">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="E48">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>582</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2257,25 +2227,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1071428571428571</v>
+        <v>0.1315068493150685</v>
       </c>
       <c r="C49">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D49">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E49">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2283,25 +2253,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1043165467625899</v>
+        <v>0.1242774566473988</v>
       </c>
       <c r="C50">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D50">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E50">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F50">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>249</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2309,25 +2279,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.08781869688385269</v>
+        <v>0.1085626911314985</v>
       </c>
       <c r="C51">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="D51">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="E51">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="F51">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>322</v>
+        <v>583</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2335,25 +2305,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.07476635514018691</v>
+        <v>0.09976798143851508</v>
       </c>
       <c r="C52">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D52">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E52">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F52">
-        <v>0.86</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2361,25 +2331,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.06976744186046512</v>
+        <v>0.07925407925407925</v>
       </c>
       <c r="C53">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D53">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E53">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F53">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2387,51 +2357,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05289256198347107</v>
+        <v>0.04950495049504951</v>
       </c>
       <c r="C54">
+        <v>30</v>
+      </c>
+      <c r="D54">
         <v>32</v>
       </c>
-      <c r="D54">
-        <v>35</v>
-      </c>
       <c r="E54">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="F54">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55">
-        <v>0.03792667509481669</v>
-      </c>
-      <c r="C55">
-        <v>30</v>
-      </c>
-      <c r="D55">
-        <v>33</v>
-      </c>
-      <c r="E55">
-        <v>0.09</v>
-      </c>
-      <c r="F55">
-        <v>0.91</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55">
-        <v>761</v>
+        <v>576</v>
       </c>
     </row>
   </sheetData>
